--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10031" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="742">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68565" uniqueCount="742">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30538,115 +30538,115 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8">
@@ -34250,115 +34250,115 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40">
@@ -34366,115 +34366,115 @@
         <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -34482,115 +34482,115 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>107</v>
+        <v>496</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>107</v>
+        <v>515</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>107</v>
+        <v>544</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>107</v>
+        <v>554</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>107</v>
+        <v>594</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>107</v>
+        <v>613</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>107</v>
+        <v>634</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>107</v>
+        <v>655</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>107</v>
+        <v>676</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>107</v>
+        <v>695</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>107</v>
+        <v>714</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>107</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42">
